--- a/SwagLabsDocumentation/SwagLabs_DesignRequirements.xlsx
+++ b/SwagLabsDocumentation/SwagLabs_DesignRequirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Branimir\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Branimir\Documents\GitHub\RoxoftTask\RoxoftTask\SwagLabsDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD904D1-7B1E-4F13-B115-F49AFFF9126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5508D044-4A3B-4CC5-A6D5-A48122523115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DesignRequirements" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Requirement mark</t>
   </si>
@@ -36,12 +36,6 @@
     <t>The Swag Labs login screen is visible when opening the link https://www.saucedemo.com</t>
   </si>
   <si>
-    <t>The login form contains the Username textbox. It is enabled, and has the word "Username" already written in it</t>
-  </si>
-  <si>
-    <t>The login form has the Password textbox. It is enabled, and has the word "Password" already written in it</t>
-  </si>
-  <si>
     <t>1.1.1</t>
   </si>
   <si>
@@ -54,33 +48,9 @@
     <t>The login button is visible, enabled, and clickable.</t>
   </si>
   <si>
-    <t>1.1.3.1</t>
-  </si>
-  <si>
-    <t>Clicking on the login button gives us an error message "Epic sadface: Username is required", while highlighting both the Username and the Password textboxes in red color.</t>
-  </si>
-  <si>
-    <t>The login form is visible and it consists of two textboxes, and a button.</t>
-  </si>
-  <si>
-    <t>The informational division showing mutliple usernames for testing purposes and a password is visible.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Successful login with valid credentials opens the homepage of https://www.saucedemo.com/inventory.html </t>
   </si>
   <si>
-    <t>Error message "Epic sadface: Password is required" is shown when selecting the Login button if only the Username box is filled</t>
-  </si>
-  <si>
-    <t>Error message "Epic sadface: Username is required" is shown when selecting the Login button if only the Password box is filled</t>
-  </si>
-  <si>
-    <t>Error message "Epic sadface: Username and password do not match any user in this service is shown when inputting the wrong username</t>
-  </si>
-  <si>
-    <t>Error message "Epic sadface: Username and password do not match any user in this service is shown when inputting the wrong password</t>
-  </si>
-  <si>
     <t>The dropdown button opens a menu that has 4 list elements: "All Items", "About", "Logout", and "Reset App State"</t>
   </si>
   <si>
@@ -163,6 +133,27 @@
   </si>
   <si>
     <t>The Cart button should have a responsive number pop up after the item has been added to it.</t>
+  </si>
+  <si>
+    <t>The login form is enabled and displayed. It consists of two interactable textboxes, and a button.</t>
+  </si>
+  <si>
+    <t>The login form contains the Username textbox. It is enabled, displayed, and has the placeholder "Username" already written in it.</t>
+  </si>
+  <si>
+    <t>The login form contains the Password textbox. It is enabled, displayed, and has the placeholder "Password" already written in it.</t>
+  </si>
+  <si>
+    <t>Error message "Epic sadface: Password is required" is shown when selecting the Login button if only the Username box is filled.</t>
+  </si>
+  <si>
+    <t>Error message "Epic sadface: Username is required" is shown when selecting the Login button if only the Password box is filled.</t>
+  </si>
+  <si>
+    <t>Error message "Epic sadface: Username and password do not match any user in this service" is shown when inputting the wrong username.</t>
+  </si>
+  <si>
+    <t>Error message "Epic sadface: Username and password do not match any user in this service" is shown when inputting the wrong password.</t>
   </si>
 </sst>
 </file>
@@ -375,15 +366,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,247 +731,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -998,12 +986,12 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>17</v>
+    <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1019,151 +1007,151 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>3</v>
+      <c r="A15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="A19" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
+      <c r="A22" s="17">
+        <v>3.3</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1179,11 +1167,11 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
+      <c r="A23" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1199,144 +1187,104 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="16" t="s">
+      <c r="B28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SwagLabsDocumentation/SwagLabs_DesignRequirements.xlsx
+++ b/SwagLabsDocumentation/SwagLabs_DesignRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Branimir\Documents\GitHub\RoxoftTask\RoxoftTask\SwagLabsDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5508D044-4A3B-4CC5-A6D5-A48122523115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11F46DE-49F7-45D7-8E6B-DCFCB114D8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>1.1.3</t>
   </si>
   <si>
-    <t>The login button is visible, enabled, and clickable.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Successful login with valid credentials opens the homepage of https://www.saucedemo.com/inventory.html </t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Error message "Epic sadface: Username and password do not match any user in this service" is shown when inputting the wrong password.</t>
+  </si>
+  <si>
+    <t>The login button is visible, and enabled.</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +215,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,20 +384,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -396,15 +408,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,6 +439,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -721,7 +748,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,560 +758,560 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>2.1</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>3.3</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SwagLabsDocumentation/SwagLabs_DesignRequirements.xlsx
+++ b/SwagLabsDocumentation/SwagLabs_DesignRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Branimir\Documents\GitHub\RoxoftTask\RoxoftTask\SwagLabsDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DFF24A-684A-4CFC-BEAC-04AF6F24450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E54CD-11C8-4BED-8CD7-0BA9C0D53838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Requirement mark</t>
   </si>
@@ -60,6 +60,9 @@
     <t>3.1.3</t>
   </si>
   <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
     <t>3.2.1</t>
   </si>
   <si>
@@ -114,12 +117,6 @@
     <t>All Items element should return you to the homepage and show all the shopping inventory items on the homepage.</t>
   </si>
   <si>
-    <t>About element should take you to https://saucelabs.com/.</t>
-  </si>
-  <si>
-    <t>The Logout element should log you out from the home page and return you to the login page.</t>
-  </si>
-  <si>
     <t>Each inventory item element on the home page should have a picture, a title, the description of the item, the price and an "Add to Cart" button.</t>
   </si>
   <si>
@@ -151,6 +148,15 @@
   </si>
   <si>
     <t>The "Name (A to Z)" option, should filter the homepage options alphabetically, in ascending order.</t>
+  </si>
+  <si>
+    <t>About element should be clickable, and take you to https://saucelabs.com/.</t>
+  </si>
+  <si>
+    <t>The Logout element should be clickable, and log you out from the home page and return you to the login page.</t>
+  </si>
+  <si>
+    <t>The ResetAppState element should be clickable, and reset the app to its default state.</t>
   </si>
 </sst>
 </file>
@@ -202,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,12 +224,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -416,14 +416,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -431,13 +428,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -452,29 +443,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,10 +764,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5"/>
@@ -790,8 +784,8 @@
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -806,10 +800,10 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
@@ -826,11 +820,11 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -846,11 +840,11 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -866,11 +860,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -886,11 +880,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>27</v>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -906,10 +900,10 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
@@ -926,11 +920,11 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="16">
         <v>2.1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>23</v>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -946,11 +940,11 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>24</v>
+      <c r="B10" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -966,11 +960,11 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -986,11 +980,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="23">
         <v>2.4</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>26</v>
+      <c r="B12" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1006,11 +1000,11 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>33</v>
+      <c r="B13" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1026,10 +1020,10 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <v>3.1</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2"/>
@@ -1046,11 +1040,11 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>28</v>
+      <c r="B15" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1066,11 +1060,11 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>29</v>
+      <c r="B16" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1086,11 +1080,11 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>30</v>
+      <c r="B17" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1106,11 +1100,11 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>3.2</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>31</v>
+      <c r="A18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1126,11 +1120,11 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>35</v>
+      <c r="A19" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1146,11 +1140,11 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1166,31 +1160,31 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>3.3</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>41</v>
+      <c r="B22" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1206,10 +1200,10 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="3"/>
@@ -1226,10 +1220,10 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="3"/>
@@ -1246,10 +1240,10 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="3"/>
@@ -1266,11 +1260,11 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>17</v>
+      <c r="B26" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1285,12 +1279,12 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>19</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1305,12 +1299,32 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+    <row r="28" spans="1:14" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>3.5</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>37</v>
+      <c r="B29" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
